--- a/REUSE_RECYCLE_요구사항정의서.xlsx
+++ b/REUSE_RECYCLE_요구사항정의서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1035" windowWidth="23670" windowHeight="11130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="기능 요구 사항(SFR)" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>기능 요구 사항(SFR)</t>
   </si>
@@ -87,68 +87,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>REC_PJ_004</t>
+  </si>
+  <si>
+    <t>REC_PJ_001-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_001-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_001-006</t>
+  </si>
+  <si>
+    <t>메인 화면 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분리수거를 연상시킬만한 이미지(쓰레기통 등)를 중앙에 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_001-001에 마우스를 호버 시, 이미지 파일 업로드 버튼 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>REC_PJ_002</t>
-  </si>
-  <si>
-    <t>REC_PJ_004</t>
-  </si>
-  <si>
-    <t>REC_PJ_005</t>
-  </si>
-  <si>
-    <t>REC_PJ_001-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_001-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_001-003</t>
-  </si>
-  <si>
-    <t>REC_PJ_001-004</t>
-  </si>
-  <si>
-    <t>REC_PJ_001-005</t>
-  </si>
-  <si>
-    <t>REC_PJ_001-006</t>
-  </si>
-  <si>
-    <t>메인 화면 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분리수거를 연상시킬만한 이미지(쓰레기통 등)를 중앙에 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 우측 상단에 사용한 모델의 상세 정보를 출력해주는 버튼 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_001-001에 마우스를 호버 시, 이미지 파일 업로드 버튼 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_001-003에서 이미지 파일을 선택 시 확인 버튼 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_002-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰레기 분류 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_001-007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,34 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REC_PJ_001-005의 확인 버튼 클릭 시 선택한 이미지 파일 업로드 및 저장 기능 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_002-003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_002-001에서 저장한 파일을 불러와서 모델에 필요한 모습으로 전처리 후 모델의 predict 함수를 사용하여 출력된 값을 세션에 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_001-006에서 선택된 이미지 파일을 구분하기 위해 파일 이름을 고유의 uuid로 변환 후 지정된 업로드 경로에 이미지 파일을 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_002-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_002-001에서 받은 uuid와 REC_PJ_002-002의 출력 값을 DB에 저장하는 기능 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_002-004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REC_PJ_002의 기능 진행 시 소요되는 시간 동안 대기 화면을 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,30 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REC_PJ_003-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_002-002에서 세션에 저장된 값을 통해 사다리 타기 형식으로 분류 결과 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_003-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_003-003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_003-001의 결과 값의 상세 정보와 확인 버튼을 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_003-002의 출력 창에서 확인 버튼을 클릭시 REC_PJ_001의 메인 화면으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회의록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,14 +154,6 @@
   </si>
   <si>
     <t>REC_DA_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_001-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,000개 이상의 데이터를 사용하여 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,7 +200,10 @@
     <t>REC_DA_001-005</t>
   </si>
   <si>
-    <t>이미지 전처리 요청 1. 이미지 사이즈 300 x 300</t>
+    <t>REC_DA_006</t>
+  </si>
+  <si>
+    <t>REC_PJ_001-002의 버튼 클릭 시 REC_DA_001-006 모델의 상세정보(사용된 데이터 수, 정확도 등)를 보여주는 모달 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,13 +211,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REC_DA_006</t>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 전처리 요청 1. 이미지 사이즈 224 x 224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 우측 상단에 사용한 모델의 상세 정보를 출력해주는 버튼 배치 -&gt; 개발 목적이나 정확도 관련된 데이터 설명 자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_001-003에서 이미지 파일을 선택 시 파일이름과 결과확인 버튼 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로딩 화면 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_002-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_001-005의 확인 버튼 클릭 시 선택 된 파일의 파일명을 세션으로 저장 후 파일의 데이터를 로딩 화면으로 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_003-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_003-004</t>
+  </si>
+  <si>
+    <t>REC_PJ_004-003</t>
+  </si>
+  <si>
+    <t>REC_PJ_001-006에서 세션에 저장된 파일명을 통해 파일을 불러온 뒤,
+REC_DA_001-006에서 선택 된 모델을 사용하여 예측값을 반환 후 결과 값을 세션에 저장 후 쓰레기 분류 화면으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_002-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_002-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_003-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_003-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_002-002에서 세션에 저장된 결과 값을 통해 사다리 타기 형식으로 분류 결과 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_003-001의 분류 결과와 사용자에게 제대로 분류가 되었는지 질문과 예/아니오로 구분된 버튼을 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_001-006에서 받은 파일을 구분하기 위해 파일 이름을 고유의 uuid로 변환 후 세션과 지정된 업로드 경로에 이미지 파일을 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_003-002의 예 버튼을 클릭 시 세션에 저장된 파일명과 결과 값을 DB에 저장 후 메인 화면으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_003-002의 아니오 버튼 클릭 시 정답을 고를 수 있는 모달을 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_003-005</t>
+  </si>
+  <si>
+    <t>REC_PJ_003-006</t>
+  </si>
+  <si>
+    <t>REC_PJ_003-004에서 출력된 모달에서 정답을 선택 후 제출 버튼을 클릭하면 세션에 저장된 파일명과
+사용자가 고른 정답을 DB에 저장 후 알럿창 출력 후 메인 화면으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_003-004에서 출력된 모달에서 아무 정답도 선택하지 않고 제출 버튼을 클릭 시 알럿창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 재학습 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_004-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_001-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_001-005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_001-007</t>
+  </si>
+  <si>
+    <t>REC_PJ_001-008</t>
+  </si>
+  <si>
+    <t>DB에 접속하여 분류 별 데이터의 개수를 확인하고 개수가 일정 개수 이상일 시 재분류 화면으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_001-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델이 재학습을 할 동안의 대기 화면을 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_DA_001-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_004-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REC_DA_001-006</t>
-  </si>
-  <si>
-    <t>REC_PJ_001-002의 버튼 클릭 시 REC_DA_001-006 모델의 상세정보(사용된 데이터 수, 정확도 등)를 보여주는 모달 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 접속하여 분류 별 데이터를 가져온 뒤, 기존의 데이터와 취합 후 전처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_004-002에서 전처리 된 데이터를 REC_DA_001-006에서 선택 된 모델을 통해 재학습 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_004-004</t>
+  </si>
+  <si>
+    <t>재학습 완료 후 서버에 저장된 이미지 파일과 DB에 저장된 데이터를 삭제 후 메인 화면으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류당 3.000개 이상의 데이터를 사용하여 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -494,13 +563,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,9 +618,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -528,6 +627,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,24 +640,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -567,14 +651,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -909,32 +1062,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -984,30 +1137,30 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1018,23 +1171,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1045,26 +1198,28 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1072,23 +1227,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="E8" s="14"/>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1099,23 +1254,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1126,23 +1281,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1161,17 +1316,17 @@
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
+      <c r="E11" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1190,15 +1345,15 @@
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1215,21 +1370,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="25"/>
       <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -1242,17 +1397,17 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E14" s="25"/>
       <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1271,15 +1426,15 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1296,17 +1451,17 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="25"/>
       <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1323,17 +1478,17 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="25"/>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1350,77 +1505,77 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E18" s="24"/>
       <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>38</v>
+        <v>79</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>40</v>
+      <c r="F20" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -1433,17 +1588,17 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1460,19 +1615,19 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1489,17 +1644,17 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1516,103 +1671,222 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="24"/>
+    <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+    </row>
+    <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F32" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E5:E10"/>
+  <mergeCells count="17">
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -1623,11 +1897,9 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E11:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="E5:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REUSE_RECYCLE_요구사항정의서.xlsx
+++ b/REUSE_RECYCLE_요구사항정의서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="기능 요구 사항(SFR)" sheetId="2" r:id="rId1"/>
@@ -232,10 +232,6 @@
     <t>REC_PJ_003-006</t>
   </si>
   <si>
-    <t>REC_PJ_003-004에서 출력된 모달에서 아무 정답도 선택하지 않고 제출 버튼을 클릭 시 알럿창 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모델 재학습 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REC_PJ_001-005의 확인 버튼 클릭 시 선택 된 파일을 구분하기 위해 파일 이름을 고유의 uuid로 변환 후 세션으로 저장 후 파일의 데이터를 로딩 화면으로 전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REC_PJ_001-006에서 받은 파일을 지정된 업로드 경로에 이미지 파일을 저장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,64 +325,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REC_PJ_003-004에서 출력된 모달에서 정답을 선택 후 제출 버튼을 클릭하면 세션에 저장된 파일명과
+    <t>REC_PJ_004-005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_004-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_004-003에서 훈련된 모델과 사용된 데이터 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_DA_002-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_DA_002-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_DA_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_DA_004-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_DA_003-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_DA_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_DA_005-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_DA_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 레이블당 3.000개 이상의 데이터를 사용하여 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 레이블은 4개~6개로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_001-005의 확인 버튼 클릭 시 선택 된 파일을 구분하기 위해 파일 이름을 고유의 uuid로 변환한 뒤 세션으로 저장 후 파일의 데이터를 로딩 화면으로 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_PJ_003-004의 출력된 모달에서 정답을 선택 후 제출 버튼을 클릭하면 세션에 저장된 파일명과
 사용자가 고른 정답을 DB에 저장 후 alert창 출력 후 메인 화면으로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REC_PJ_004-005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_004-003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_004-003에서 훈련된 모델과 사용된 데이터 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_002-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_002-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_004-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_003-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_005-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_PJ_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류 레이블당 3.000개 이상의 데이터를 사용하여 훈련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류 레이블은 4개~6개로 설정</t>
+    <t>REC_PJ_003-004에서 출력된 모달에서 아무 정답도 선택하지 않고 제출 버튼을 클릭 시 alert창 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,158 +690,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,873 +1159,868 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="117.5" customWidth="1"/>
-    <col min="8" max="8" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="35">
+    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="36" t="s">
+      <c r="G5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="39"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="20">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="20">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
-        <v>84</v>
+      <c r="E7" s="36"/>
+      <c r="F7" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="20">
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="D8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="20">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="23">
-        <v>6</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="41" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>7</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="42"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="35">
-        <v>7</v>
-      </c>
-      <c r="B11" s="36" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="20">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="20">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="20">
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="20">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="5" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="20">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A17" s="20">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
         <v>15</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="B19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="23">
-        <v>14</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="42"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="35">
-        <v>15</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="36" t="s">
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
-    </row>
-    <row r="20" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A20" s="20">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="23">
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="42"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="35">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
         <v>18</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="46" t="s">
+      <c r="C22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="36" t="s">
+      <c r="G22" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="20">
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="5" t="s">
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="20">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>20</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="5" t="s">
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="20">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A26" s="20">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
+        <v>23</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>24</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="E28" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="23">
-        <v>23</v>
-      </c>
-      <c r="B27" s="24" t="s">
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="42"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="32">
-        <v>24</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="52" t="s">
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="20">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="20">
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>26</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10" t="s">
-        <v>81</v>
+      <c r="E30" s="39"/>
+      <c r="F30" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="20">
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>27</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10" t="s">
-        <v>67</v>
+      <c r="E31" s="39"/>
+      <c r="F31" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="23">
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
         <v>28</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="24" t="s">
+      <c r="C32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -2038,6 +2033,11 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E19:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/REUSE_RECYCLE_요구사항정의서.xlsx
+++ b/REUSE_RECYCLE_요구사항정의서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <t>기능 요구 사항(SFR)</t>
   </si>
@@ -150,10 +150,6 @@
   </si>
   <si>
     <t>REC_DA_001-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -337,39 +333,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REC_DA_002-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_002-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_004-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_003-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_005-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REC_PJ_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC_DA_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -392,6 +356,24 @@
   <si>
     <t>REC_PJ_003-004에서 출력된 모달에서 아무 정답도 선택하지 않고 제출 버튼을 클릭 시 alert창 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_DA_001</t>
+  </si>
+  <si>
+    <t>REC_DA_001-002</t>
+  </si>
+  <si>
+    <t>REC_DA_001-003</t>
+  </si>
+  <si>
+    <t>REC_DA_001-004</t>
+  </si>
+  <si>
+    <t>REC_DA_001-005</t>
+  </si>
+  <si>
+    <t>REC_DA_001-006</t>
   </si>
 </sst>
 </file>
@@ -453,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -674,13 +656,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,6 +781,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,40 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,7 +1164,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1176,80 +1180,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="53"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
@@ -1261,17 +1265,17 @@
       <c r="C5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="56" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>28</v>
@@ -1290,15 +1294,15 @@
       <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="3" t="s">
-        <v>80</v>
+      <c r="D6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>28</v>
@@ -1317,22 +1321,22 @@
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="3" t="s">
-        <v>81</v>
+      <c r="D7" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="10"/>
     </row>
@@ -1346,15 +1350,15 @@
       <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>28</v>
@@ -1373,15 +1377,15 @@
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="3" t="s">
-        <v>83</v>
+      <c r="D9" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>28</v>
@@ -1400,15 +1404,15 @@
       <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="13" t="s">
-        <v>86</v>
+      <c r="E10" s="51"/>
+      <c r="F10" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>28</v>
@@ -1430,7 +1434,7 @@
       <c r="D11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="55" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="20" t="s">
@@ -1459,12 +1463,12 @@
       <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>28</v>
@@ -1486,12 +1490,12 @@
       <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>28</v>
@@ -1513,9 +1517,9 @@
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>22</v>
@@ -1540,9 +1544,9 @@
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>24</v>
@@ -1567,12 +1571,12 @@
       <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>28</v>
@@ -1594,12 +1598,12 @@
       <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>28</v>
@@ -1621,12 +1625,12 @@
       <c r="D18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>28</v>
@@ -1648,14 +1652,14 @@
       <c r="D19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>40</v>
-      </c>
       <c r="G19" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>28</v>
@@ -1677,12 +1681,12 @@
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>28</v>
@@ -1704,9 +1708,9 @@
       <c r="D21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>25</v>
@@ -1729,19 +1733,19 @@
         <v>12</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="55" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -1758,17 +1762,17 @@
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="39"/>
+        <v>53</v>
+      </c>
+      <c r="E23" s="53"/>
       <c r="F23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1785,17 +1789,17 @@
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="39"/>
+        <v>53</v>
+      </c>
+      <c r="E24" s="53"/>
       <c r="F24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1814,15 +1818,15 @@
       <c r="D25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1839,17 +1843,17 @@
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="39"/>
+        <v>53</v>
+      </c>
+      <c r="E26" s="53"/>
       <c r="F26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1866,17 +1870,17 @@
         <v>12</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="40"/>
+        <v>53</v>
+      </c>
+      <c r="E27" s="54"/>
       <c r="F27" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
@@ -1893,19 +1897,19 @@
         <v>12</v>
       </c>
       <c r="D28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>56</v>
-      </c>
       <c r="G28" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
@@ -1922,17 +1926,17 @@
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="39"/>
+        <v>67</v>
+      </c>
+      <c r="E29" s="53"/>
       <c r="F29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1951,15 +1955,15 @@
       <c r="D30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1978,12 +1982,12 @@
       <c r="D31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>28</v>
@@ -2003,17 +2007,17 @@
         <v>12</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="40"/>
+        <v>79</v>
+      </c>
+      <c r="E32" s="54"/>
       <c r="F32" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2021,6 +2025,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -2033,11 +2042,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E19:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
